--- a/03_AD/MHTG/MHTG_RNAV_FINALES.xlsx
+++ b/03_AD/MHTG/MHTG_RNAV_FINALES.xlsx
@@ -3642,9 +3642,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:U37"/>
+  <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:O37"/>
     </sheetView>
   </sheetViews>
@@ -3662,16 +3662,17 @@
     <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="13" style="1" customWidth="1"/>
     <col min="13" max="15" width="14.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.375" customWidth="1"/>
-    <col min="17" max="18" width="9" customWidth="1"/>
-    <col min="19" max="19" width="11.875" customWidth="1"/>
-    <col min="20" max="20" width="9" customWidth="1"/>
-    <col min="21" max="21" width="11.625" customWidth="1"/>
-    <col min="22" max="22" width="9" customWidth="1"/>
+    <col min="16" max="16" width="14.5" customWidth="1"/>
+    <col min="17" max="17" width="12.375" customWidth="1"/>
+    <col min="18" max="19" width="9" customWidth="1"/>
+    <col min="20" max="20" width="11.875" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="11.625" customWidth="1"/>
+    <col min="23" max="23" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:21" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:22" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -3717,14 +3718,14 @@
       <c r="O2" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P2" s="28" t="s">
+      <c r="Q2" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>130</v>
       </c>
@@ -3744,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="G3" s="9" t="str">
-        <f>"HDG "&amp;U3</f>
+        <f>"HDG "&amp;V3</f>
         <v>HDG 019.0 (019.0)</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -3771,31 +3772,31 @@
       <c r="O3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P3" s="30">
+      <c r="Q3" s="30">
         <v>18.986834030000001</v>
       </c>
-      <c r="Q3" s="30" t="str">
+      <c r="R3" s="30" t="str">
         <f>MID(L3,1,1)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="30" t="str">
+      <c r="S3" s="30" t="str">
         <f>MID(L3,3,2)</f>
         <v>20</v>
       </c>
-      <c r="S3" s="30">
-        <f t="shared" ref="S3:S8" si="0">-(Q3+R3/60)</f>
+      <c r="T3" s="30">
+        <f t="shared" ref="T3:T8" si="0">-(R3+S3/60)</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="T3" s="30">
-        <f t="shared" ref="T3" si="1">P3-S2</f>
+      <c r="U3" s="30">
+        <f t="shared" ref="U3" si="1">Q3-T2</f>
         <v>18.986834030000001</v>
       </c>
-      <c r="U3" s="30" t="str">
-        <f t="shared" ref="U3:U6" si="2">TEXT(T3,"000.0")&amp;TEXT(P3," (000.0)")</f>
+      <c r="V3" s="30" t="str">
+        <f t="shared" ref="V3:V6" si="2">TEXT(U3,"000.0")&amp;TEXT(Q3," (000.0)")</f>
         <v>019.0 (019.0)</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>130</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="9" t="str">
-        <f>U4</f>
+        <f>V4</f>
         <v>005.5 (005.2)</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -3842,31 +3843,31 @@
       <c r="O4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P4" s="30">
+      <c r="Q4" s="30">
         <v>5.1975383900000001</v>
       </c>
-      <c r="Q4" s="30" t="str">
-        <f t="shared" ref="Q4:Q36" si="3">MID(L4,1,1)</f>
-        <v>0</v>
-      </c>
       <c r="R4" s="30" t="str">
-        <f t="shared" ref="R4:R36" si="4">MID(L4,3,2)</f>
+        <f>MID(L4,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S4" s="30" t="str">
+        <f>MID(L4,3,2)</f>
         <v>21</v>
       </c>
-      <c r="S4" s="30">
+      <c r="T4" s="30">
         <f t="shared" si="0"/>
         <v>-0.35</v>
       </c>
-      <c r="T4" s="30">
-        <f>P4-S3</f>
+      <c r="U4" s="30">
+        <f>Q4-T3</f>
         <v>5.5308717233333331</v>
       </c>
-      <c r="U4" s="30" t="str">
+      <c r="V4" s="30" t="str">
         <f t="shared" si="2"/>
         <v>005.5 (005.2)</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>130</v>
       </c>
@@ -3886,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="9" t="str">
-        <f>U5</f>
+        <f>V5</f>
         <v>359.3 (359.0)</v>
       </c>
       <c r="H5" s="7" t="s">
@@ -3913,31 +3914,31 @@
       <c r="O5" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P5" s="30">
+      <c r="Q5" s="30">
         <v>358.98258693999998</v>
       </c>
-      <c r="Q5" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R5" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L5,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S5" s="30" t="str">
+        <f>MID(L5,3,2)</f>
         <v>21</v>
       </c>
-      <c r="S5" s="30">
+      <c r="T5" s="30">
         <f t="shared" si="0"/>
         <v>-0.35</v>
       </c>
-      <c r="T5" s="30">
-        <f t="shared" ref="T5:T6" si="5">P5-S4</f>
+      <c r="U5" s="30">
+        <f t="shared" ref="U5:U6" si="3">Q5-T4</f>
         <v>359.33258694</v>
       </c>
-      <c r="U5" s="30" t="str">
-        <f t="shared" ref="U5" si="6">TEXT(T5,"000.0")&amp;TEXT(P5," (000.0)")</f>
+      <c r="V5" s="30" t="str">
+        <f t="shared" ref="V5" si="4">TEXT(U5,"000.0")&amp;TEXT(Q5," (000.0)")</f>
         <v>359.3 (359.0)</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>130</v>
       </c>
@@ -3957,7 +3958,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="9" t="str">
-        <f>U6</f>
+        <f>V6</f>
         <v>006.5 (006.2)</v>
       </c>
       <c r="H6" s="9" t="s">
@@ -3984,31 +3985,31 @@
       <c r="O6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P6" s="30">
+      <c r="Q6" s="30">
         <v>6.1733427499999998</v>
       </c>
-      <c r="Q6" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R6" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L6,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S6" s="30" t="str">
+        <f>MID(L6,3,2)</f>
         <v>23</v>
       </c>
-      <c r="S6" s="30">
+      <c r="T6" s="30">
         <f t="shared" si="0"/>
         <v>-0.38333333333333336</v>
       </c>
-      <c r="T6" s="30">
-        <f t="shared" si="5"/>
+      <c r="U6" s="30">
+        <f t="shared" si="3"/>
         <v>6.5233427499999994</v>
       </c>
-      <c r="U6" s="30" t="str">
+      <c r="V6" s="30" t="str">
         <f t="shared" si="2"/>
         <v>006.5 (006.2)</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>130</v>
       </c>
@@ -4028,7 +4029,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="shared" ref="G7:G9" si="7">U7</f>
+        <f t="shared" ref="G7:G9" si="5">V7</f>
         <v>007.1 (006.8)</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -4055,31 +4056,31 @@
       <c r="O7" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P7" s="31">
+      <c r="Q7" s="31">
         <v>6.7610632900000001</v>
       </c>
-      <c r="Q7" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R7" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L7,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S7" s="30" t="str">
+        <f>MID(L7,3,2)</f>
         <v>24</v>
       </c>
-      <c r="S7" s="30">
+      <c r="T7" s="30">
         <f t="shared" si="0"/>
         <v>-0.4</v>
       </c>
-      <c r="T7" s="30">
-        <f>P7-S6</f>
+      <c r="U7" s="30">
+        <f>Q7-T6</f>
         <v>7.1443966233333338</v>
       </c>
-      <c r="U7" s="30" t="str">
-        <f t="shared" ref="U7:U9" si="8">TEXT(T7,"000.0")&amp;TEXT(P7," (000.0)")</f>
+      <c r="V7" s="30" t="str">
+        <f t="shared" ref="V7:V9" si="6">TEXT(U7,"000.0")&amp;TEXT(Q7," (000.0)")</f>
         <v>007.1 (006.8)</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>130</v>
       </c>
@@ -4099,7 +4100,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>026.1 (025.7)</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -4126,31 +4127,31 @@
       <c r="O8" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P8" s="31">
+      <c r="Q8" s="31">
         <v>25.67135356</v>
       </c>
-      <c r="Q8" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R8" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L8,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S8" s="30" t="str">
+        <f>MID(L8,3,2)</f>
         <v>26</v>
       </c>
-      <c r="S8" s="30">
+      <c r="T8" s="30">
         <f t="shared" si="0"/>
         <v>-0.43333333333333335</v>
       </c>
-      <c r="T8" s="30">
-        <f>P8-S7</f>
+      <c r="U8" s="30">
+        <f>Q8-T7</f>
         <v>26.071353559999999</v>
       </c>
-      <c r="U8" s="30" t="str">
-        <f t="shared" si="8"/>
+      <c r="V8" s="30" t="str">
+        <f t="shared" si="6"/>
         <v>026.1 (025.7)</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>130</v>
       </c>
@@ -4170,7 +4171,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>012.2 (011.7)</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -4197,19 +4198,19 @@
       <c r="O9" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P9" s="31">
+      <c r="Q9" s="31">
         <v>11.74896425</v>
       </c>
-      <c r="T9" s="30">
-        <f>P9-S8</f>
+      <c r="U9" s="30">
+        <f>Q9-T8</f>
         <v>12.182297583333334</v>
       </c>
-      <c r="U9" s="30" t="str">
-        <f t="shared" si="8"/>
+      <c r="V9" s="30" t="str">
+        <f t="shared" si="6"/>
         <v>012.2 (011.7)</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
@@ -4255,14 +4256,14 @@
       <c r="O11" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P11" s="28" t="s">
+      <c r="Q11" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T11" t="s">
+      <c r="U11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>131</v>
       </c>
@@ -4282,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="9" t="str">
-        <f>"HDG "&amp;U12</f>
+        <f>"HDG "&amp;V12</f>
         <v>HDG 019.0 (019.0)</v>
       </c>
       <c r="H12" s="7" t="s">
@@ -4309,31 +4310,31 @@
       <c r="O12" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P12" s="30">
+      <c r="Q12" s="30">
         <v>18.986834030000001</v>
       </c>
-      <c r="Q12" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R12" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L12,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="30" t="str">
+        <f>MID(L12,3,2)</f>
         <v>20</v>
       </c>
-      <c r="S12" s="30">
-        <f t="shared" ref="S12:S18" si="9">-(Q12+R12/60)</f>
+      <c r="T12" s="30">
+        <f t="shared" ref="T12:T18" si="7">-(R12+S12/60)</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="T12" s="30">
-        <f t="shared" ref="T12" si="10">P12-S11</f>
+      <c r="U12" s="30">
+        <f t="shared" ref="U12" si="8">Q12-T11</f>
         <v>18.986834030000001</v>
       </c>
-      <c r="U12" s="30" t="str">
-        <f t="shared" ref="U12:U19" si="11">TEXT(T12,"000.0")&amp;TEXT(P12," (000.0)")</f>
+      <c r="V12" s="30" t="str">
+        <f t="shared" ref="V12:V19" si="9">TEXT(U12,"000.0")&amp;TEXT(Q12," (000.0)")</f>
         <v>019.0 (019.0)</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>131</v>
       </c>
@@ -4353,7 +4354,7 @@
         <v>0</v>
       </c>
       <c r="G13" s="9" t="str">
-        <f>U13</f>
+        <f>V13</f>
         <v>005.5 (005.2)</v>
       </c>
       <c r="H13" s="7" t="s">
@@ -4380,31 +4381,31 @@
       <c r="O13" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P13" s="30">
+      <c r="Q13" s="30">
         <v>5.1975383900000001</v>
       </c>
-      <c r="Q13" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R13" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L13,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="30" t="str">
+        <f>MID(L13,3,2)</f>
         <v>21</v>
       </c>
-      <c r="S13" s="30">
+      <c r="T13" s="30">
+        <f t="shared" si="7"/>
+        <v>-0.35</v>
+      </c>
+      <c r="U13" s="30">
+        <f>Q13-T12</f>
+        <v>5.5308717233333331</v>
+      </c>
+      <c r="V13" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>-0.35</v>
-      </c>
-      <c r="T13" s="30">
-        <f>P13-S12</f>
-        <v>5.5308717233333331</v>
-      </c>
-      <c r="U13" s="30" t="str">
-        <f t="shared" si="11"/>
         <v>005.5 (005.2)</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>131</v>
       </c>
@@ -4424,7 +4425,7 @@
         <v>0</v>
       </c>
       <c r="G14" s="9" t="str">
-        <f>U14</f>
+        <f>V14</f>
         <v>359.3 (359.0)</v>
       </c>
       <c r="H14" s="7" t="s">
@@ -4451,31 +4452,31 @@
       <c r="O14" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P14" s="30">
+      <c r="Q14" s="30">
         <v>358.98258693999998</v>
       </c>
-      <c r="Q14" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R14" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L14,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="30" t="str">
+        <f>MID(L14,3,2)</f>
         <v>21</v>
       </c>
-      <c r="S14" s="30">
+      <c r="T14" s="30">
+        <f t="shared" si="7"/>
+        <v>-0.35</v>
+      </c>
+      <c r="U14" s="30">
+        <f t="shared" ref="U14:U19" si="10">Q14-T13</f>
+        <v>359.33258694</v>
+      </c>
+      <c r="V14" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>-0.35</v>
-      </c>
-      <c r="T14" s="30">
-        <f t="shared" ref="T14:T19" si="12">P14-S13</f>
-        <v>359.33258694</v>
-      </c>
-      <c r="U14" s="30" t="str">
-        <f t="shared" si="11"/>
         <v>359.3 (359.0)</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>131</v>
       </c>
@@ -4495,7 +4496,7 @@
         <v>0</v>
       </c>
       <c r="G15" s="9" t="str">
-        <f>U15</f>
+        <f>V15</f>
         <v>006.5 (006.2)</v>
       </c>
       <c r="H15" s="7" t="s">
@@ -4522,31 +4523,31 @@
       <c r="O15" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P15" s="30">
+      <c r="Q15" s="30">
         <v>6.1733427499999998</v>
       </c>
-      <c r="Q15" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R15" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L15,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S15" s="30" t="str">
+        <f>MID(L15,3,2)</f>
         <v>23</v>
       </c>
-      <c r="S15" s="30">
+      <c r="T15" s="30">
+        <f t="shared" si="7"/>
+        <v>-0.38333333333333336</v>
+      </c>
+      <c r="U15" s="30">
+        <f t="shared" si="10"/>
+        <v>6.5233427499999994</v>
+      </c>
+      <c r="V15" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>-0.38333333333333336</v>
-      </c>
-      <c r="T15" s="30">
-        <f t="shared" si="12"/>
-        <v>6.5233427499999994</v>
-      </c>
-      <c r="U15" s="30" t="str">
-        <f t="shared" si="11"/>
         <v>006.5 (006.2)</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>131</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="9" t="str">
-        <f t="shared" ref="G16:G19" si="13">U16</f>
+        <f t="shared" ref="G16:G19" si="11">V16</f>
         <v>007.1 (006.8)</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -4593,31 +4594,31 @@
       <c r="O16" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P16" s="32">
+      <c r="Q16" s="32">
         <v>6.7610632900000001</v>
       </c>
-      <c r="Q16" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R16" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L16,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S16" s="30" t="str">
+        <f>MID(L16,3,2)</f>
         <v>24</v>
       </c>
-      <c r="S16" s="30">
+      <c r="T16" s="30">
+        <f t="shared" si="7"/>
+        <v>-0.4</v>
+      </c>
+      <c r="U16" s="30">
+        <f t="shared" si="10"/>
+        <v>7.1443966233333338</v>
+      </c>
+      <c r="V16" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>-0.4</v>
-      </c>
-      <c r="T16" s="30">
-        <f t="shared" si="12"/>
-        <v>7.1443966233333338</v>
-      </c>
-      <c r="U16" s="30" t="str">
-        <f t="shared" si="11"/>
         <v>007.1 (006.8)</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>131</v>
       </c>
@@ -4637,7 +4638,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>069.1 (068.7)</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -4664,31 +4665,31 @@
       <c r="O17" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P17" s="32">
+      <c r="Q17" s="32">
         <v>68.732500430000002</v>
       </c>
-      <c r="Q17" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R17" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L17,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="30" t="str">
+        <f>MID(L17,3,2)</f>
         <v>31</v>
       </c>
-      <c r="S17" s="30">
+      <c r="T17" s="30">
+        <f t="shared" si="7"/>
+        <v>-0.51666666666666672</v>
+      </c>
+      <c r="U17" s="30">
+        <f t="shared" si="10"/>
+        <v>69.132500430000007</v>
+      </c>
+      <c r="V17" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>-0.51666666666666672</v>
-      </c>
-      <c r="T17" s="30">
-        <f t="shared" si="12"/>
-        <v>69.132500430000007</v>
-      </c>
-      <c r="U17" s="30" t="str">
-        <f t="shared" si="11"/>
         <v>069.1 (068.7)</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>131</v>
       </c>
@@ -4708,7 +4709,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>141.8 (141.3)</v>
       </c>
       <c r="H18" s="9" t="s">
@@ -4735,31 +4736,31 @@
       <c r="O18" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P18" s="32">
+      <c r="Q18" s="32">
         <v>141.27002458999999</v>
       </c>
-      <c r="Q18" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R18" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L18,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="30" t="str">
+        <f>MID(L18,3,2)</f>
         <v>34</v>
       </c>
-      <c r="S18" s="30">
+      <c r="T18" s="30">
+        <f t="shared" si="7"/>
+        <v>-0.56666666666666665</v>
+      </c>
+      <c r="U18" s="30">
+        <f t="shared" si="10"/>
+        <v>141.78669125666667</v>
+      </c>
+      <c r="V18" s="30" t="str">
         <f t="shared" si="9"/>
-        <v>-0.56666666666666665</v>
-      </c>
-      <c r="T18" s="30">
-        <f t="shared" si="12"/>
-        <v>141.78669125666667</v>
-      </c>
-      <c r="U18" s="30" t="str">
-        <f t="shared" si="11"/>
         <v>141.8 (141.3)</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>131</v>
       </c>
@@ -4779,7 +4780,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>218.0 (217.5)</v>
       </c>
       <c r="H19" s="9" t="s">
@@ -4806,33 +4807,33 @@
       <c r="O19" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P19" s="32">
+      <c r="Q19" s="32">
         <v>217.47579006999999</v>
       </c>
-      <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
-      <c r="T19" s="30">
-        <f t="shared" si="12"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="30">
+        <f t="shared" si="10"/>
         <v>218.04245673666665</v>
       </c>
-      <c r="U19" s="30" t="str">
-        <f t="shared" si="11"/>
+      <c r="V19" s="30" t="str">
+        <f t="shared" si="9"/>
         <v>218.0 (217.5)</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="P20" s="28"/>
-      <c r="Q20" t="str">
-        <f t="shared" si="3"/>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q20" s="28"/>
+      <c r="R20" t="str">
+        <f>MID(L20,1,1)</f>
         <v/>
       </c>
-      <c r="R20" t="str">
-        <f t="shared" si="4"/>
+      <c r="S20" t="str">
+        <f>MID(L20,3,2)</f>
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>11</v>
       </c>
@@ -4878,14 +4879,14 @@
       <c r="O21" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P21" s="28" t="s">
+      <c r="Q21" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T21" t="s">
+      <c r="U21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>132</v>
       </c>
@@ -4905,7 +4906,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="9" t="str">
-        <f>"HDG "&amp;U22</f>
+        <f>"HDG "&amp;V22</f>
         <v>HDG 019.0 (019.0)</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -4932,31 +4933,31 @@
       <c r="O22" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P22" s="30">
+      <c r="Q22" s="30">
         <v>18.986834030000001</v>
       </c>
-      <c r="Q22" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R22" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L22,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="30" t="str">
+        <f>MID(L22,3,2)</f>
         <v>20</v>
       </c>
-      <c r="S22" s="30">
-        <f t="shared" ref="S22:S27" si="14">-(Q22+R22/60)</f>
+      <c r="T22" s="30">
+        <f t="shared" ref="T22:T27" si="12">-(R22+S22/60)</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="T22" s="30">
-        <f t="shared" ref="T22" si="15">P22-S21</f>
+      <c r="U22" s="30">
+        <f t="shared" ref="U22" si="13">Q22-T21</f>
         <v>18.986834030000001</v>
       </c>
-      <c r="U22" s="30" t="str">
-        <f t="shared" ref="U22:U28" si="16">TEXT(T22,"000.0")&amp;TEXT(P22," (000.0)")</f>
+      <c r="V22" s="30" t="str">
+        <f t="shared" ref="V22:V28" si="14">TEXT(U22,"000.0")&amp;TEXT(Q22," (000.0)")</f>
         <v>019.0 (019.0)</v>
       </c>
     </row>
-    <row r="23" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>132</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="9" t="str">
-        <f>U23</f>
+        <f>V23</f>
         <v>005.5 (005.2)</v>
       </c>
       <c r="H23" s="7" t="s">
@@ -5003,31 +5004,31 @@
       <c r="O23" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P23" s="30">
+      <c r="Q23" s="30">
         <v>5.1975383900000001</v>
       </c>
-      <c r="Q23" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R23" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L23,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="30" t="str">
+        <f>MID(L23,3,2)</f>
         <v>21</v>
       </c>
-      <c r="S23" s="30">
+      <c r="T23" s="30">
+        <f t="shared" si="12"/>
+        <v>-0.35</v>
+      </c>
+      <c r="U23" s="30">
+        <f>Q23-T22</f>
+        <v>5.5308717233333331</v>
+      </c>
+      <c r="V23" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>-0.35</v>
-      </c>
-      <c r="T23" s="30">
-        <f>P23-S22</f>
-        <v>5.5308717233333331</v>
-      </c>
-      <c r="U23" s="30" t="str">
-        <f t="shared" si="16"/>
         <v>005.5 (005.2)</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>132</v>
       </c>
@@ -5047,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="G24" s="9" t="str">
-        <f>U24</f>
+        <f>V24</f>
         <v>359.3 (359.0)</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -5074,31 +5075,31 @@
       <c r="O24" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P24" s="30">
+      <c r="Q24" s="30">
         <v>358.98258693999998</v>
       </c>
-      <c r="Q24" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R24" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L24,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="30" t="str">
+        <f>MID(L24,3,2)</f>
         <v>21</v>
       </c>
-      <c r="S24" s="30">
+      <c r="T24" s="30">
+        <f t="shared" si="12"/>
+        <v>-0.35</v>
+      </c>
+      <c r="U24" s="30">
+        <f t="shared" ref="U24:U28" si="15">Q24-T23</f>
+        <v>359.33258694</v>
+      </c>
+      <c r="V24" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>-0.35</v>
-      </c>
-      <c r="T24" s="30">
-        <f t="shared" ref="T24:T28" si="17">P24-S23</f>
-        <v>359.33258694</v>
-      </c>
-      <c r="U24" s="30" t="str">
-        <f t="shared" si="16"/>
         <v>359.3 (359.0)</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>132</v>
       </c>
@@ -5118,7 +5119,7 @@
         <v>0</v>
       </c>
       <c r="G25" s="9" t="str">
-        <f>U25</f>
+        <f>V25</f>
         <v>006.5 (006.2)</v>
       </c>
       <c r="H25" s="7" t="s">
@@ -5145,31 +5146,31 @@
       <c r="O25" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P25" s="30">
+      <c r="Q25" s="30">
         <v>6.1733427499999998</v>
       </c>
-      <c r="Q25" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R25" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L25,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="30" t="str">
+        <f>MID(L25,3,2)</f>
         <v>23</v>
       </c>
-      <c r="S25" s="30">
+      <c r="T25" s="30">
+        <f t="shared" si="12"/>
+        <v>-0.38333333333333336</v>
+      </c>
+      <c r="U25" s="30">
+        <f t="shared" si="15"/>
+        <v>6.5233427499999994</v>
+      </c>
+      <c r="V25" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>-0.38333333333333336</v>
-      </c>
-      <c r="T25" s="30">
-        <f t="shared" si="17"/>
-        <v>6.5233427499999994</v>
-      </c>
-      <c r="U25" s="30" t="str">
-        <f t="shared" si="16"/>
         <v>006.5 (006.2)</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>132</v>
       </c>
@@ -5189,7 +5190,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="9" t="str">
-        <f t="shared" ref="G26:G28" si="18">U26</f>
+        <f t="shared" ref="G26:G28" si="16">V26</f>
         <v>007.1 (006.8)</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -5216,31 +5217,31 @@
       <c r="O26" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P26" s="32">
+      <c r="Q26" s="32">
         <v>6.7610632900000001</v>
       </c>
-      <c r="Q26" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R26" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L26,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="30" t="str">
+        <f>MID(L26,3,2)</f>
         <v>24</v>
       </c>
-      <c r="S26" s="30">
+      <c r="T26" s="30">
+        <f t="shared" si="12"/>
+        <v>-0.4</v>
+      </c>
+      <c r="U26" s="30">
+        <f t="shared" si="15"/>
+        <v>7.1443966233333338</v>
+      </c>
+      <c r="V26" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>-0.4</v>
-      </c>
-      <c r="T26" s="30">
-        <f t="shared" si="17"/>
-        <v>7.1443966233333338</v>
-      </c>
-      <c r="U26" s="30" t="str">
-        <f t="shared" si="16"/>
         <v>007.1 (006.8)</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>132</v>
       </c>
@@ -5260,7 +5261,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>321.7 (321.3)</v>
       </c>
       <c r="H27" s="9" t="s">
@@ -5287,31 +5288,31 @@
       <c r="O27" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P27" s="32">
+      <c r="Q27" s="32">
         <v>321.34612607999998</v>
       </c>
-      <c r="Q27" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R27" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L27,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="30" t="str">
+        <f>MID(L27,3,2)</f>
         <v>14</v>
       </c>
-      <c r="S27" s="30">
+      <c r="T27" s="30">
+        <f t="shared" si="12"/>
+        <v>-0.23333333333333334</v>
+      </c>
+      <c r="U27" s="30">
+        <f t="shared" si="15"/>
+        <v>321.74612607999995</v>
+      </c>
+      <c r="V27" s="30" t="str">
         <f t="shared" si="14"/>
-        <v>-0.23333333333333334</v>
-      </c>
-      <c r="T27" s="30">
-        <f t="shared" si="17"/>
-        <v>321.74612607999995</v>
-      </c>
-      <c r="U27" s="30" t="str">
-        <f t="shared" si="16"/>
         <v>321.7 (321.3)</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>132</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="16"/>
         <v>335.7 (335.4)</v>
       </c>
       <c r="H28" s="9" t="s">
@@ -5358,33 +5359,33 @@
       <c r="O28" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="32">
+      <c r="Q28" s="32">
         <v>335.4387491</v>
       </c>
-      <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="30">
-        <f t="shared" si="17"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="30">
+        <f t="shared" si="15"/>
         <v>335.67208243333334</v>
       </c>
-      <c r="U28" s="30" t="str">
-        <f t="shared" si="16"/>
+      <c r="V28" s="30" t="str">
+        <f t="shared" si="14"/>
         <v>335.7 (335.4)</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="P29" s="28"/>
-      <c r="Q29" t="str">
-        <f t="shared" si="3"/>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="Q29" s="28"/>
+      <c r="R29" t="str">
+        <f>MID(L29,1,1)</f>
         <v/>
       </c>
-      <c r="R29" t="str">
-        <f t="shared" si="4"/>
+      <c r="S29" t="str">
+        <f>MID(L29,3,2)</f>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>11</v>
       </c>
@@ -5430,18 +5431,18 @@
       <c r="O30" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="P30" s="28" t="s">
+      <c r="Q30" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="S30">
-        <f t="shared" ref="S30" si="19">Q30+R30/60</f>
-        <v>0</v>
-      </c>
-      <c r="T30" t="s">
+      <c r="T30">
+        <f t="shared" ref="T30" si="17">R30+S30/60</f>
+        <v>0</v>
+      </c>
+      <c r="U30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>133</v>
       </c>
@@ -5461,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="G31" s="9" t="str">
-        <f>"HDG "&amp;U31</f>
+        <f>"HDG "&amp;V31</f>
         <v>HDG 019.0 (019.0)</v>
       </c>
       <c r="H31" s="7" t="s">
@@ -5488,31 +5489,31 @@
       <c r="O31" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P31" s="30">
+      <c r="Q31" s="30">
         <v>18.986834030000001</v>
       </c>
-      <c r="Q31" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R31" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L31,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="30" t="str">
+        <f>MID(L31,3,2)</f>
         <v>20</v>
       </c>
-      <c r="S31" s="30">
-        <f t="shared" ref="S31:S36" si="20">-(Q31+R31/60)</f>
+      <c r="T31" s="30">
+        <f t="shared" ref="T31:T36" si="18">-(R31+S31/60)</f>
         <v>-0.33333333333333331</v>
       </c>
-      <c r="T31" s="30">
-        <f t="shared" ref="T31" si="21">P31-S30</f>
+      <c r="U31" s="30">
+        <f t="shared" ref="U31" si="19">Q31-T30</f>
         <v>18.986834030000001</v>
       </c>
-      <c r="U31" s="30" t="str">
-        <f t="shared" ref="U31:U37" si="22">TEXT(T31,"000.0")&amp;TEXT(P31," (000.0)")</f>
+      <c r="V31" s="30" t="str">
+        <f t="shared" ref="V31:V37" si="20">TEXT(U31,"000.0")&amp;TEXT(Q31," (000.0)")</f>
         <v>019.0 (019.0)</v>
       </c>
     </row>
-    <row r="32" spans="1:21" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>133</v>
       </c>
@@ -5532,7 +5533,7 @@
         <v>0</v>
       </c>
       <c r="G32" s="9" t="str">
-        <f>U32</f>
+        <f>V32</f>
         <v>005.5 (005.2)</v>
       </c>
       <c r="H32" s="7" t="s">
@@ -5559,31 +5560,31 @@
       <c r="O32" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="P32" s="30">
+      <c r="Q32" s="30">
         <v>5.1975383900000001</v>
       </c>
-      <c r="Q32" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R32" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L32,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="30" t="str">
+        <f>MID(L32,3,2)</f>
         <v>21</v>
       </c>
-      <c r="S32" s="30">
+      <c r="T32" s="30">
+        <f t="shared" si="18"/>
+        <v>-0.35</v>
+      </c>
+      <c r="U32" s="30">
+        <f>Q32-T31</f>
+        <v>5.5308717233333331</v>
+      </c>
+      <c r="V32" s="30" t="str">
         <f t="shared" si="20"/>
-        <v>-0.35</v>
-      </c>
-      <c r="T32" s="30">
-        <f>P32-S31</f>
-        <v>5.5308717233333331</v>
-      </c>
-      <c r="U32" s="30" t="str">
-        <f t="shared" si="22"/>
         <v>005.5 (005.2)</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="9" t="s">
         <v>133</v>
       </c>
@@ -5603,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="9" t="str">
-        <f>U33</f>
+        <f>V33</f>
         <v>359.3 (359.0)</v>
       </c>
       <c r="H33" s="7" t="s">
@@ -5630,31 +5631,31 @@
       <c r="O33" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P33" s="30">
+      <c r="Q33" s="30">
         <v>358.98258693999998</v>
       </c>
-      <c r="Q33" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R33" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L33,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="30" t="str">
+        <f>MID(L33,3,2)</f>
         <v>21</v>
       </c>
-      <c r="S33" s="30">
+      <c r="T33" s="30">
+        <f t="shared" si="18"/>
+        <v>-0.35</v>
+      </c>
+      <c r="U33" s="30">
+        <f t="shared" ref="U33:U37" si="21">Q33-T32</f>
+        <v>359.33258694</v>
+      </c>
+      <c r="V33" s="30" t="str">
         <f t="shared" si="20"/>
-        <v>-0.35</v>
-      </c>
-      <c r="T33" s="30">
-        <f t="shared" ref="T33:T37" si="23">P33-S32</f>
-        <v>359.33258694</v>
-      </c>
-      <c r="U33" s="30" t="str">
-        <f t="shared" si="22"/>
         <v>359.3 (359.0)</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>133</v>
       </c>
@@ -5674,7 +5675,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="9" t="str">
-        <f>U34</f>
+        <f>V34</f>
         <v>006.5 (006.2)</v>
       </c>
       <c r="H34" s="7" t="s">
@@ -5701,31 +5702,31 @@
       <c r="O34" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P34" s="30">
+      <c r="Q34" s="30">
         <v>6.1733427499999998</v>
       </c>
-      <c r="Q34" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R34" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L34,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="30" t="str">
+        <f>MID(L34,3,2)</f>
         <v>23</v>
       </c>
-      <c r="S34" s="30">
+      <c r="T34" s="30">
+        <f t="shared" si="18"/>
+        <v>-0.38333333333333336</v>
+      </c>
+      <c r="U34" s="30">
+        <f t="shared" si="21"/>
+        <v>6.5233427499999994</v>
+      </c>
+      <c r="V34" s="30" t="str">
         <f t="shared" si="20"/>
-        <v>-0.38333333333333336</v>
-      </c>
-      <c r="T34" s="30">
-        <f t="shared" si="23"/>
-        <v>6.5233427499999994</v>
-      </c>
-      <c r="U34" s="30" t="str">
-        <f t="shared" si="22"/>
         <v>006.5 (006.2)</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>133</v>
       </c>
@@ -5745,7 +5746,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="9" t="str">
-        <f t="shared" ref="G35:G37" si="24">U35</f>
+        <f t="shared" ref="G35:G37" si="22">V35</f>
         <v>282.1 (281.8)</v>
       </c>
       <c r="H35" s="9" t="s">
@@ -5772,31 +5773,31 @@
       <c r="O35" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P35" s="32">
+      <c r="Q35" s="32">
         <v>281.75329498999997</v>
       </c>
-      <c r="Q35" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R35" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L35,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="30" t="str">
+        <f>MID(L35,3,2)</f>
         <v>12</v>
       </c>
-      <c r="S35" s="30">
+      <c r="T35" s="30">
+        <f t="shared" si="18"/>
+        <v>-0.2</v>
+      </c>
+      <c r="U35" s="30">
+        <f t="shared" si="21"/>
+        <v>282.1366283233333</v>
+      </c>
+      <c r="V35" s="30" t="str">
         <f t="shared" si="20"/>
-        <v>-0.2</v>
-      </c>
-      <c r="T35" s="30">
-        <f t="shared" si="23"/>
-        <v>282.1366283233333</v>
-      </c>
-      <c r="U35" s="30" t="str">
-        <f t="shared" si="22"/>
         <v>282.1 (281.8)</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>133</v>
       </c>
@@ -5816,7 +5817,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>233.0 (232.8)</v>
       </c>
       <c r="H36" s="9" t="s">
@@ -5843,31 +5844,31 @@
       <c r="O36" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="P36" s="32">
+      <c r="Q36" s="32">
         <v>232.80119741999999</v>
       </c>
-      <c r="Q36" s="30" t="str">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
       <c r="R36" s="30" t="str">
-        <f t="shared" si="4"/>
+        <f>MID(L36,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="30" t="str">
+        <f>MID(L36,3,2)</f>
         <v>06</v>
       </c>
-      <c r="S36" s="30">
+      <c r="T36" s="30">
+        <f t="shared" si="18"/>
+        <v>-0.1</v>
+      </c>
+      <c r="U36" s="30">
+        <f t="shared" si="21"/>
+        <v>233.00119741999998</v>
+      </c>
+      <c r="V36" s="30" t="str">
         <f t="shared" si="20"/>
-        <v>-0.1</v>
-      </c>
-      <c r="T36" s="30">
-        <f t="shared" si="23"/>
-        <v>233.00119741999998</v>
-      </c>
-      <c r="U36" s="30" t="str">
-        <f t="shared" si="22"/>
         <v>233.0 (232.8)</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>133</v>
       </c>
@@ -5887,7 +5888,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="22"/>
         <v>190.8 (190.7)</v>
       </c>
       <c r="H37" s="9" t="s">
@@ -5914,18 +5915,18 @@
       <c r="O37" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="P37" s="31">
+      <c r="Q37" s="31">
         <v>190.72888523</v>
       </c>
-      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
-      <c r="T37" s="30">
-        <f t="shared" si="23"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="30">
+        <f t="shared" si="21"/>
         <v>190.82888523</v>
       </c>
-      <c r="U37" s="30" t="str">
-        <f t="shared" si="22"/>
+      <c r="V37" s="30" t="str">
+        <f t="shared" si="20"/>
         <v>190.8 (190.7)</v>
       </c>
     </row>

--- a/03_AD/MHTG/MHTG_RNAV_FINALES.xlsx
+++ b/03_AD/MHTG/MHTG_RNAV_FINALES.xlsx
@@ -9,22 +9,23 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18120" windowHeight="10740" tabRatio="599" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18120" windowHeight="10740" tabRatio="599" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NORTH RNAV (RNP) RWY 02" sheetId="6" r:id="rId1"/>
     <sheet name="SOUTH RNAV (RNP) RWY 02" sheetId="7" r:id="rId2"/>
-    <sheet name="MHTG RNAV SID 02" sheetId="1" r:id="rId3"/>
+    <sheet name="MHTG RNP2 SID RWY 02" sheetId="1" r:id="rId3"/>
+    <sheet name="MHTG RNP2" sheetId="8" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'MHTG RNAV SID 02'!$A$1:$M$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'MHTG RNP2 SID RWY 02'!$A$1:$M$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="898" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="179">
   <si>
     <t>-</t>
   </si>
@@ -520,12 +521,75 @@
   <si>
     <t>-
 6.02 DME TNT</t>
+  </si>
+  <si>
+    <t>PISIS</t>
+  </si>
+  <si>
+    <t>+19000</t>
+  </si>
+  <si>
+    <t>RNP 2</t>
+  </si>
+  <si>
+    <t>TG001</t>
+  </si>
+  <si>
+    <t>165503.97N</t>
+  </si>
+  <si>
+    <t>0852059.49W</t>
+  </si>
+  <si>
+    <t>+10000</t>
+  </si>
+  <si>
+    <t>+9000</t>
+  </si>
+  <si>
+    <t>KORTI</t>
+  </si>
+  <si>
+    <t>160739N</t>
+  </si>
+  <si>
+    <t>0874652W</t>
+  </si>
+  <si>
+    <t>+8000</t>
+  </si>
+  <si>
+    <t>KORTI1</t>
+  </si>
+  <si>
+    <t>PISIS1</t>
+  </si>
+  <si>
+    <t>201240N</t>
+  </si>
+  <si>
+    <t>0825555W</t>
+  </si>
+  <si>
+    <t>3°53' W</t>
+  </si>
+  <si>
+    <t>1°53' W</t>
+  </si>
+  <si>
+    <t>0°00'</t>
+  </si>
+  <si>
+    <t>0°19' W</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.00000000"/>
+  </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -629,7 +693,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -707,11 +771,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -809,6 +882,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3644,8 +3724,8 @@
   </sheetPr>
   <dimension ref="A1:V37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:O37"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3776,23 +3856,23 @@
         <v>18.986834030000001</v>
       </c>
       <c r="R3" s="30" t="str">
-        <f>MID(L3,1,1)</f>
+        <f t="shared" ref="R3:R8" si="0">MID(L3,1,1)</f>
         <v>0</v>
       </c>
       <c r="S3" s="30" t="str">
-        <f>MID(L3,3,2)</f>
+        <f t="shared" ref="S3:S8" si="1">MID(L3,3,2)</f>
         <v>20</v>
       </c>
       <c r="T3" s="30">
-        <f t="shared" ref="T3:T8" si="0">-(R3+S3/60)</f>
+        <f t="shared" ref="T3:T8" si="2">-(R3+S3/60)</f>
         <v>-0.33333333333333331</v>
       </c>
       <c r="U3" s="30">
-        <f t="shared" ref="U3" si="1">Q3-T2</f>
+        <f t="shared" ref="U3" si="3">Q3-T2</f>
         <v>18.986834030000001</v>
       </c>
       <c r="V3" s="30" t="str">
-        <f t="shared" ref="V3:V6" si="2">TEXT(U3,"000.0")&amp;TEXT(Q3," (000.0)")</f>
+        <f t="shared" ref="V3:V6" si="4">TEXT(U3,"000.0")&amp;TEXT(Q3," (000.0)")</f>
         <v>019.0 (019.0)</v>
       </c>
     </row>
@@ -3847,15 +3927,15 @@
         <v>5.1975383900000001</v>
       </c>
       <c r="R4" s="30" t="str">
-        <f>MID(L4,1,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S4" s="30" t="str">
-        <f>MID(L4,3,2)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="T4" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.35</v>
       </c>
       <c r="U4" s="30">
@@ -3863,7 +3943,7 @@
         <v>5.5308717233333331</v>
       </c>
       <c r="V4" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>005.5 (005.2)</v>
       </c>
     </row>
@@ -3918,23 +3998,23 @@
         <v>358.98258693999998</v>
       </c>
       <c r="R5" s="30" t="str">
-        <f>MID(L5,1,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S5" s="30" t="str">
-        <f>MID(L5,3,2)</f>
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
       <c r="T5" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.35</v>
       </c>
       <c r="U5" s="30">
-        <f t="shared" ref="U5:U6" si="3">Q5-T4</f>
+        <f t="shared" ref="U5:U6" si="5">Q5-T4</f>
         <v>359.33258694</v>
       </c>
       <c r="V5" s="30" t="str">
-        <f t="shared" ref="V5" si="4">TEXT(U5,"000.0")&amp;TEXT(Q5," (000.0)")</f>
+        <f t="shared" ref="V5" si="6">TEXT(U5,"000.0")&amp;TEXT(Q5," (000.0)")</f>
         <v>359.3 (359.0)</v>
       </c>
     </row>
@@ -3989,23 +4069,23 @@
         <v>6.1733427499999998</v>
       </c>
       <c r="R6" s="30" t="str">
-        <f>MID(L6,1,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S6" s="30" t="str">
-        <f>MID(L6,3,2)</f>
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
       <c r="T6" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.38333333333333336</v>
       </c>
       <c r="U6" s="30">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6.5233427499999994</v>
       </c>
       <c r="V6" s="30" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>006.5 (006.2)</v>
       </c>
     </row>
@@ -4029,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="9" t="str">
-        <f t="shared" ref="G7:G9" si="5">V7</f>
+        <f t="shared" ref="G7:G9" si="7">V7</f>
         <v>007.1 (006.8)</v>
       </c>
       <c r="H7" s="9" t="s">
@@ -4060,15 +4140,15 @@
         <v>6.7610632900000001</v>
       </c>
       <c r="R7" s="30" t="str">
-        <f>MID(L7,1,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S7" s="30" t="str">
-        <f>MID(L7,3,2)</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
       <c r="T7" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.4</v>
       </c>
       <c r="U7" s="30">
@@ -4076,7 +4156,7 @@
         <v>7.1443966233333338</v>
       </c>
       <c r="V7" s="30" t="str">
-        <f t="shared" ref="V7:V9" si="6">TEXT(U7,"000.0")&amp;TEXT(Q7," (000.0)")</f>
+        <f t="shared" ref="V7:V9" si="8">TEXT(U7,"000.0")&amp;TEXT(Q7," (000.0)")</f>
         <v>007.1 (006.8)</v>
       </c>
     </row>
@@ -4100,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>026.1 (025.7)</v>
       </c>
       <c r="H8" s="9" t="s">
@@ -4131,15 +4211,15 @@
         <v>25.67135356</v>
       </c>
       <c r="R8" s="30" t="str">
-        <f>MID(L8,1,1)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S8" s="30" t="str">
-        <f>MID(L8,3,2)</f>
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
       <c r="T8" s="30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>-0.43333333333333335</v>
       </c>
       <c r="U8" s="30">
@@ -4147,7 +4227,7 @@
         <v>26.071353559999999</v>
       </c>
       <c r="V8" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>026.1 (025.7)</v>
       </c>
     </row>
@@ -4171,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="9" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>012.2 (011.7)</v>
       </c>
       <c r="H9" s="7" t="s">
@@ -4206,7 +4286,7 @@
         <v>12.182297583333334</v>
       </c>
       <c r="V9" s="30" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>012.2 (011.7)</v>
       </c>
     </row>
@@ -4314,23 +4394,23 @@
         <v>18.986834030000001</v>
       </c>
       <c r="R12" s="30" t="str">
-        <f>MID(L12,1,1)</f>
+        <f t="shared" ref="R12:R18" si="9">MID(L12,1,1)</f>
         <v>0</v>
       </c>
       <c r="S12" s="30" t="str">
-        <f>MID(L12,3,2)</f>
+        <f t="shared" ref="S12:S18" si="10">MID(L12,3,2)</f>
         <v>20</v>
       </c>
       <c r="T12" s="30">
-        <f t="shared" ref="T12:T18" si="7">-(R12+S12/60)</f>
+        <f t="shared" ref="T12:T18" si="11">-(R12+S12/60)</f>
         <v>-0.33333333333333331</v>
       </c>
       <c r="U12" s="30">
-        <f t="shared" ref="U12" si="8">Q12-T11</f>
+        <f t="shared" ref="U12" si="12">Q12-T11</f>
         <v>18.986834030000001</v>
       </c>
       <c r="V12" s="30" t="str">
-        <f t="shared" ref="V12:V19" si="9">TEXT(U12,"000.0")&amp;TEXT(Q12," (000.0)")</f>
+        <f t="shared" ref="V12:V19" si="13">TEXT(U12,"000.0")&amp;TEXT(Q12," (000.0)")</f>
         <v>019.0 (019.0)</v>
       </c>
     </row>
@@ -4385,15 +4465,15 @@
         <v>5.1975383900000001</v>
       </c>
       <c r="R13" s="30" t="str">
-        <f>MID(L13,1,1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S13" s="30" t="str">
-        <f>MID(L13,3,2)</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="T13" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.35</v>
       </c>
       <c r="U13" s="30">
@@ -4401,7 +4481,7 @@
         <v>5.5308717233333331</v>
       </c>
       <c r="V13" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>005.5 (005.2)</v>
       </c>
     </row>
@@ -4456,23 +4536,23 @@
         <v>358.98258693999998</v>
       </c>
       <c r="R14" s="30" t="str">
-        <f>MID(L14,1,1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S14" s="30" t="str">
-        <f>MID(L14,3,2)</f>
+        <f t="shared" si="10"/>
         <v>21</v>
       </c>
       <c r="T14" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.35</v>
       </c>
       <c r="U14" s="30">
-        <f t="shared" ref="U14:U19" si="10">Q14-T13</f>
+        <f t="shared" ref="U14:U19" si="14">Q14-T13</f>
         <v>359.33258694</v>
       </c>
       <c r="V14" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>359.3 (359.0)</v>
       </c>
     </row>
@@ -4527,23 +4607,23 @@
         <v>6.1733427499999998</v>
       </c>
       <c r="R15" s="30" t="str">
-        <f>MID(L15,1,1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S15" s="30" t="str">
-        <f>MID(L15,3,2)</f>
+        <f t="shared" si="10"/>
         <v>23</v>
       </c>
       <c r="T15" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.38333333333333336</v>
       </c>
       <c r="U15" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>6.5233427499999994</v>
       </c>
       <c r="V15" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>006.5 (006.2)</v>
       </c>
     </row>
@@ -4567,7 +4647,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="9" t="str">
-        <f t="shared" ref="G16:G19" si="11">V16</f>
+        <f t="shared" ref="G16:G19" si="15">V16</f>
         <v>007.1 (006.8)</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -4598,23 +4678,23 @@
         <v>6.7610632900000001</v>
       </c>
       <c r="R16" s="30" t="str">
-        <f>MID(L16,1,1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S16" s="30" t="str">
-        <f>MID(L16,3,2)</f>
+        <f t="shared" si="10"/>
         <v>24</v>
       </c>
       <c r="T16" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.4</v>
       </c>
       <c r="U16" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>7.1443966233333338</v>
       </c>
       <c r="V16" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>007.1 (006.8)</v>
       </c>
     </row>
@@ -4638,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="G17" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>069.1 (068.7)</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -4669,23 +4749,23 @@
         <v>68.732500430000002</v>
       </c>
       <c r="R17" s="30" t="str">
-        <f>MID(L17,1,1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S17" s="30" t="str">
-        <f>MID(L17,3,2)</f>
+        <f t="shared" si="10"/>
         <v>31</v>
       </c>
       <c r="T17" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.51666666666666672</v>
       </c>
       <c r="U17" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>69.132500430000007</v>
       </c>
       <c r="V17" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>069.1 (068.7)</v>
       </c>
     </row>
@@ -4709,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>141.8 (141.3)</v>
       </c>
       <c r="H18" s="9" t="s">
@@ -4740,23 +4820,23 @@
         <v>141.27002458999999</v>
       </c>
       <c r="R18" s="30" t="str">
-        <f>MID(L18,1,1)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="S18" s="30" t="str">
-        <f>MID(L18,3,2)</f>
+        <f t="shared" si="10"/>
         <v>34</v>
       </c>
       <c r="T18" s="30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>-0.56666666666666665</v>
       </c>
       <c r="U18" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>141.78669125666667</v>
       </c>
       <c r="V18" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>141.8 (141.3)</v>
       </c>
     </row>
@@ -4780,7 +4860,7 @@
         <v>0</v>
       </c>
       <c r="G19" s="9" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="15"/>
         <v>218.0 (217.5)</v>
       </c>
       <c r="H19" s="9" t="s">
@@ -4814,11 +4894,11 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="14"/>
         <v>218.04245673666665</v>
       </c>
       <c r="V19" s="30" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="13"/>
         <v>218.0 (217.5)</v>
       </c>
     </row>
@@ -4937,23 +5017,23 @@
         <v>18.986834030000001</v>
       </c>
       <c r="R22" s="30" t="str">
-        <f>MID(L22,1,1)</f>
+        <f t="shared" ref="R22:R27" si="16">MID(L22,1,1)</f>
         <v>0</v>
       </c>
       <c r="S22" s="30" t="str">
-        <f>MID(L22,3,2)</f>
+        <f t="shared" ref="S22:S27" si="17">MID(L22,3,2)</f>
         <v>20</v>
       </c>
       <c r="T22" s="30">
-        <f t="shared" ref="T22:T27" si="12">-(R22+S22/60)</f>
+        <f t="shared" ref="T22:T27" si="18">-(R22+S22/60)</f>
         <v>-0.33333333333333331</v>
       </c>
       <c r="U22" s="30">
-        <f t="shared" ref="U22" si="13">Q22-T21</f>
+        <f t="shared" ref="U22" si="19">Q22-T21</f>
         <v>18.986834030000001</v>
       </c>
       <c r="V22" s="30" t="str">
-        <f t="shared" ref="V22:V28" si="14">TEXT(U22,"000.0")&amp;TEXT(Q22," (000.0)")</f>
+        <f t="shared" ref="V22:V28" si="20">TEXT(U22,"000.0")&amp;TEXT(Q22," (000.0)")</f>
         <v>019.0 (019.0)</v>
       </c>
     </row>
@@ -5008,15 +5088,15 @@
         <v>5.1975383900000001</v>
       </c>
       <c r="R23" s="30" t="str">
-        <f>MID(L23,1,1)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S23" s="30" t="str">
-        <f>MID(L23,3,2)</f>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="T23" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.35</v>
       </c>
       <c r="U23" s="30">
@@ -5024,7 +5104,7 @@
         <v>5.5308717233333331</v>
       </c>
       <c r="V23" s="30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>005.5 (005.2)</v>
       </c>
     </row>
@@ -5079,23 +5159,23 @@
         <v>358.98258693999998</v>
       </c>
       <c r="R24" s="30" t="str">
-        <f>MID(L24,1,1)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S24" s="30" t="str">
-        <f>MID(L24,3,2)</f>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="T24" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.35</v>
       </c>
       <c r="U24" s="30">
-        <f t="shared" ref="U24:U28" si="15">Q24-T23</f>
+        <f t="shared" ref="U24:U28" si="21">Q24-T23</f>
         <v>359.33258694</v>
       </c>
       <c r="V24" s="30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>359.3 (359.0)</v>
       </c>
     </row>
@@ -5150,23 +5230,23 @@
         <v>6.1733427499999998</v>
       </c>
       <c r="R25" s="30" t="str">
-        <f>MID(L25,1,1)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S25" s="30" t="str">
-        <f>MID(L25,3,2)</f>
+        <f t="shared" si="17"/>
         <v>23</v>
       </c>
       <c r="T25" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.38333333333333336</v>
       </c>
       <c r="U25" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>6.5233427499999994</v>
       </c>
       <c r="V25" s="30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>006.5 (006.2)</v>
       </c>
     </row>
@@ -5190,7 +5270,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="9" t="str">
-        <f t="shared" ref="G26:G28" si="16">V26</f>
+        <f t="shared" ref="G26:G28" si="22">V26</f>
         <v>007.1 (006.8)</v>
       </c>
       <c r="H26" s="7" t="s">
@@ -5221,23 +5301,23 @@
         <v>6.7610632900000001</v>
       </c>
       <c r="R26" s="30" t="str">
-        <f>MID(L26,1,1)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S26" s="30" t="str">
-        <f>MID(L26,3,2)</f>
+        <f t="shared" si="17"/>
         <v>24</v>
       </c>
       <c r="T26" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.4</v>
       </c>
       <c r="U26" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>7.1443966233333338</v>
       </c>
       <c r="V26" s="30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>007.1 (006.8)</v>
       </c>
     </row>
@@ -5261,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="G27" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>321.7 (321.3)</v>
       </c>
       <c r="H27" s="9" t="s">
@@ -5292,23 +5372,23 @@
         <v>321.34612607999998</v>
       </c>
       <c r="R27" s="30" t="str">
-        <f>MID(L27,1,1)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="S27" s="30" t="str">
-        <f>MID(L27,3,2)</f>
+        <f t="shared" si="17"/>
         <v>14</v>
       </c>
       <c r="T27" s="30">
-        <f t="shared" si="12"/>
+        <f t="shared" si="18"/>
         <v>-0.23333333333333334</v>
       </c>
       <c r="U27" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>321.74612607999995</v>
       </c>
       <c r="V27" s="30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>321.7 (321.3)</v>
       </c>
     </row>
@@ -5332,7 +5412,7 @@
         <v>0</v>
       </c>
       <c r="G28" s="9" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="22"/>
         <v>335.7 (335.4)</v>
       </c>
       <c r="H28" s="9" t="s">
@@ -5366,11 +5446,11 @@
       <c r="S28" s="2"/>
       <c r="T28" s="2"/>
       <c r="U28" s="30">
-        <f t="shared" si="15"/>
+        <f t="shared" si="21"/>
         <v>335.67208243333334</v>
       </c>
       <c r="V28" s="30" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="20"/>
         <v>335.7 (335.4)</v>
       </c>
     </row>
@@ -5435,7 +5515,7 @@
         <v>36</v>
       </c>
       <c r="T30">
-        <f t="shared" ref="T30" si="17">R30+S30/60</f>
+        <f t="shared" ref="T30" si="23">R30+S30/60</f>
         <v>0</v>
       </c>
       <c r="U30" t="s">
@@ -5493,23 +5573,23 @@
         <v>18.986834030000001</v>
       </c>
       <c r="R31" s="30" t="str">
-        <f>MID(L31,1,1)</f>
+        <f t="shared" ref="R31:R36" si="24">MID(L31,1,1)</f>
         <v>0</v>
       </c>
       <c r="S31" s="30" t="str">
-        <f>MID(L31,3,2)</f>
+        <f t="shared" ref="S31:S36" si="25">MID(L31,3,2)</f>
         <v>20</v>
       </c>
       <c r="T31" s="30">
-        <f t="shared" ref="T31:T36" si="18">-(R31+S31/60)</f>
+        <f t="shared" ref="T31:T36" si="26">-(R31+S31/60)</f>
         <v>-0.33333333333333331</v>
       </c>
       <c r="U31" s="30">
-        <f t="shared" ref="U31" si="19">Q31-T30</f>
+        <f t="shared" ref="U31" si="27">Q31-T30</f>
         <v>18.986834030000001</v>
       </c>
       <c r="V31" s="30" t="str">
-        <f t="shared" ref="V31:V37" si="20">TEXT(U31,"000.0")&amp;TEXT(Q31," (000.0)")</f>
+        <f t="shared" ref="V31:V37" si="28">TEXT(U31,"000.0")&amp;TEXT(Q31," (000.0)")</f>
         <v>019.0 (019.0)</v>
       </c>
     </row>
@@ -5564,15 +5644,15 @@
         <v>5.1975383900000001</v>
       </c>
       <c r="R32" s="30" t="str">
-        <f>MID(L32,1,1)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S32" s="30" t="str">
-        <f>MID(L32,3,2)</f>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="T32" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>-0.35</v>
       </c>
       <c r="U32" s="30">
@@ -5580,7 +5660,7 @@
         <v>5.5308717233333331</v>
       </c>
       <c r="V32" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>005.5 (005.2)</v>
       </c>
     </row>
@@ -5635,23 +5715,23 @@
         <v>358.98258693999998</v>
       </c>
       <c r="R33" s="30" t="str">
-        <f>MID(L33,1,1)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S33" s="30" t="str">
-        <f>MID(L33,3,2)</f>
+        <f t="shared" si="25"/>
         <v>21</v>
       </c>
       <c r="T33" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>-0.35</v>
       </c>
       <c r="U33" s="30">
-        <f t="shared" ref="U33:U37" si="21">Q33-T32</f>
+        <f t="shared" ref="U33:U37" si="29">Q33-T32</f>
         <v>359.33258694</v>
       </c>
       <c r="V33" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>359.3 (359.0)</v>
       </c>
     </row>
@@ -5706,23 +5786,23 @@
         <v>6.1733427499999998</v>
       </c>
       <c r="R34" s="30" t="str">
-        <f>MID(L34,1,1)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S34" s="30" t="str">
-        <f>MID(L34,3,2)</f>
+        <f t="shared" si="25"/>
         <v>23</v>
       </c>
       <c r="T34" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>-0.38333333333333336</v>
       </c>
       <c r="U34" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>6.5233427499999994</v>
       </c>
       <c r="V34" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>006.5 (006.2)</v>
       </c>
     </row>
@@ -5746,7 +5826,7 @@
         <v>0</v>
       </c>
       <c r="G35" s="9" t="str">
-        <f t="shared" ref="G35:G37" si="22">V35</f>
+        <f t="shared" ref="G35:G37" si="30">V35</f>
         <v>282.1 (281.8)</v>
       </c>
       <c r="H35" s="9" t="s">
@@ -5777,23 +5857,23 @@
         <v>281.75329498999997</v>
       </c>
       <c r="R35" s="30" t="str">
-        <f>MID(L35,1,1)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S35" s="30" t="str">
-        <f>MID(L35,3,2)</f>
+        <f t="shared" si="25"/>
         <v>12</v>
       </c>
       <c r="T35" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>-0.2</v>
       </c>
       <c r="U35" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>282.1366283233333</v>
       </c>
       <c r="V35" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>282.1 (281.8)</v>
       </c>
     </row>
@@ -5817,7 +5897,7 @@
         <v>0</v>
       </c>
       <c r="G36" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>233.0 (232.8)</v>
       </c>
       <c r="H36" s="9" t="s">
@@ -5848,23 +5928,23 @@
         <v>232.80119741999999</v>
       </c>
       <c r="R36" s="30" t="str">
-        <f>MID(L36,1,1)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S36" s="30" t="str">
-        <f>MID(L36,3,2)</f>
+        <f t="shared" si="25"/>
         <v>06</v>
       </c>
       <c r="T36" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="26"/>
         <v>-0.1</v>
       </c>
       <c r="U36" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>233.00119741999998</v>
       </c>
       <c r="V36" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>233.0 (232.8)</v>
       </c>
     </row>
@@ -5888,7 +5968,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="9" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="30"/>
         <v>190.8 (190.7)</v>
       </c>
       <c r="H37" s="9" t="s">
@@ -5922,11 +6002,11 @@
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
       <c r="U37" s="30">
-        <f t="shared" si="21"/>
+        <f t="shared" si="29"/>
         <v>190.82888523</v>
       </c>
       <c r="V37" s="30" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="28"/>
         <v>190.8 (190.7)</v>
       </c>
     </row>
@@ -5934,4 +6014,748 @@
   <pageMargins left="0.70866141732283505" right="0.70866141732283505" top="0.74803149606299202" bottom="0.74803149606299202" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup scale="67" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:T21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="27" t="s">
+        <v>175</v>
+      </c>
+      <c r="M3" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O3" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="P3" s="30" t="str">
+        <f>MID(L3,1,1)</f>
+        <v>3</v>
+      </c>
+      <c r="Q3" s="30" t="str">
+        <f>MID(L3,3,2)</f>
+        <v>53</v>
+      </c>
+      <c r="R3" s="30">
+        <f>-(P3+Q3/60)</f>
+        <v>-3.8833333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="9" t="str">
+        <f>T4</f>
+        <v>219.3 (215.4)</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="9">
+        <v>240.27</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="M4" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O4" s="2">
+        <v>215.39225786</v>
+      </c>
+      <c r="P4" s="30" t="str">
+        <f t="shared" ref="P4:P6" si="0">MID(L4,1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="30" t="str">
+        <f t="shared" ref="Q4:Q6" si="1">MID(L4,3,2)</f>
+        <v>53</v>
+      </c>
+      <c r="R4" s="30">
+        <f>-(P4+Q4/60)</f>
+        <v>-1.8833333333333333</v>
+      </c>
+      <c r="S4" s="30">
+        <f t="shared" ref="S4:S6" si="2">O4-R3</f>
+        <v>219.27559119333333</v>
+      </c>
+      <c r="T4" s="30" t="str">
+        <f t="shared" ref="T4:T6" si="3">TEXT(S4,"000.0")&amp;TEXT(O4," (000.0)")</f>
+        <v>219.3 (215.4)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" s="9" t="str">
+        <f t="shared" ref="G5:G6" si="4">T5</f>
+        <v>217.1 (215.3)</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="9">
+        <v>180.98</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L5" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="M5" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O5" s="2">
+        <v>215.25063243</v>
+      </c>
+      <c r="P5" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q5" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="R5" s="30">
+        <f>-(P5+Q5/60)</f>
+        <v>-0.43333333333333335</v>
+      </c>
+      <c r="S5" s="30">
+        <f t="shared" si="2"/>
+        <v>217.13396576333332</v>
+      </c>
+      <c r="T5" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>217.1 (215.3)</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" s="9" t="str">
+        <f t="shared" si="4"/>
+        <v>190.2 (189.8)</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="9">
+        <v>10.19</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L6" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O6" s="2">
+        <v>189.76235319</v>
+      </c>
+      <c r="P6" s="30" t="str">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="30" t="str">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="R6" s="30">
+        <f>-(P6+Q6/60)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="S6" s="30">
+        <f t="shared" si="2"/>
+        <v>190.19568652333334</v>
+      </c>
+      <c r="T6" s="30" t="str">
+        <f t="shared" si="3"/>
+        <v>190.2 (189.8)</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L9" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O9" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="P9" s="30" t="str">
+        <f t="shared" ref="P9:P11" si="5">MID(L9,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q9" s="30" t="str">
+        <f t="shared" ref="Q9:Q11" si="6">MID(L9,3,2)</f>
+        <v>20</v>
+      </c>
+      <c r="R9" s="30">
+        <f>-(P9+Q9/60)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+    </row>
+    <row r="10" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9" t="str">
+        <f t="shared" ref="G9:G11" si="7">T10</f>
+        <v>160.1 (159.8)</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="J10" s="9">
+        <v>107.58</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L10" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O10" s="2">
+        <v>159.80532319</v>
+      </c>
+      <c r="P10" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q10" s="30" t="str">
+        <f t="shared" si="6"/>
+        <v>26</v>
+      </c>
+      <c r="R10" s="30">
+        <f>-(P10+Q10/60)</f>
+        <v>-0.43333333333333335</v>
+      </c>
+      <c r="S10" s="30">
+        <f t="shared" ref="S10:S11" si="8">O10-R9</f>
+        <v>160.13865652333334</v>
+      </c>
+      <c r="T10" s="30" t="str">
+        <f t="shared" ref="T9:T11" si="9">TEXT(S10,"000.0")&amp;TEXT(O10," (000.0)")</f>
+        <v>160.1 (159.8)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="str">
+        <f t="shared" si="7"/>
+        <v>190.2 (189.8)</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>166</v>
+      </c>
+      <c r="J11" s="9">
+        <v>10.19</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L11" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O11" s="2">
+        <v>189.76235319</v>
+      </c>
+      <c r="P11" s="30" t="str">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="30" t="str">
+        <f t="shared" si="6"/>
+        <v>24</v>
+      </c>
+      <c r="R11" s="30">
+        <f>-(P11+Q11/60)</f>
+        <v>-0.4</v>
+      </c>
+      <c r="S11" s="30">
+        <f t="shared" si="8"/>
+        <v>190.19568652333334</v>
+      </c>
+      <c r="T11" s="30" t="str">
+        <f t="shared" si="9"/>
+        <v>190.2 (189.8)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O12" s="38"/>
+    </row>
+    <row r="13" spans="1:20" ht="39" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="O13" s="38"/>
+    </row>
+    <row r="14" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="29" t="s">
+        <v>165</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>177</v>
+      </c>
+      <c r="M14" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="P14" s="30" t="str">
+        <f t="shared" ref="P14:P15" si="10">MID(L14,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="30" t="str">
+        <f t="shared" ref="Q14:Q15" si="11">MID(L14,3,2)</f>
+        <v>00</v>
+      </c>
+      <c r="R14" s="30">
+        <f>-(P14+Q14/60)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="9" t="str">
+        <f>T15</f>
+        <v>071.8 (071.8)</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="J15" s="10">
+        <v>32</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>178</v>
+      </c>
+      <c r="M15" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="O15" s="39">
+        <v>71.804550289999995</v>
+      </c>
+      <c r="P15" s="30" t="str">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q15" s="30" t="str">
+        <f t="shared" si="11"/>
+        <v>19</v>
+      </c>
+      <c r="R15" s="30">
+        <f>-(P15+Q15/60)</f>
+        <v>-0.31666666666666665</v>
+      </c>
+      <c r="S15" s="30">
+        <f t="shared" ref="S15" si="12">O15-R14</f>
+        <v>71.804550289999995</v>
+      </c>
+      <c r="T15" s="30" t="str">
+        <f t="shared" ref="T15" si="13">TEXT(S15,"000.0")&amp;TEXT(O15," (000.0)")</f>
+        <v>071.8 (071.8)</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="O16" s="38"/>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O17" s="38"/>
+    </row>
+    <row r="18" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O18" s="38"/>
+    </row>
+    <row r="19" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O19" s="38"/>
+    </row>
+    <row r="20" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O20" s="38"/>
+    </row>
+    <row r="21" spans="15:15" x14ac:dyDescent="0.25">
+      <c r="O21" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="R5 R10" formula="1"/>
+    <ignoredError sqref="I3:I6 I9:I11 I14:I15" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
 </file>
--- a/03_AD/MHTG/MHTG_RNAV_FINALES.xlsx
+++ b/03_AD/MHTG/MHTG_RNAV_FINALES.xlsx
@@ -9,23 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18120" windowHeight="10740" tabRatio="599" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18120" windowHeight="10740" tabRatio="599"/>
   </bookViews>
   <sheets>
-    <sheet name="NORTH RNAV (RNP) RWY 02" sheetId="6" r:id="rId1"/>
-    <sheet name="SOUTH RNAV (RNP) RWY 02" sheetId="7" r:id="rId2"/>
-    <sheet name="MHTG RNP2 SID RWY 02" sheetId="1" r:id="rId3"/>
-    <sheet name="MHTG RNP2" sheetId="8" r:id="rId4"/>
+    <sheet name="MHTG 2-39.10 RNAV (RNP) RW20" sheetId="9" r:id="rId1"/>
+    <sheet name="NORTH RNAV (RNP) RWY 02" sheetId="6" r:id="rId2"/>
+    <sheet name="SOUTH RNAV (RNP) RWY 02" sheetId="7" r:id="rId3"/>
+    <sheet name="MHTG RNP2 SID RWY 02" sheetId="1" r:id="rId4"/>
+    <sheet name="MHTG RNP2" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">'MHTG RNP2 SID RWY 02'!$A$1:$M$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'MHTG RNP2 SID RWY 02'!$A$1:$M$8</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="215">
   <si>
     <t>-</t>
   </si>
@@ -581,6 +582,123 @@
   </si>
   <si>
     <t>0°19' W</t>
+  </si>
+  <si>
+    <t>RNAV (RNP) RWY 20</t>
+  </si>
+  <si>
+    <t>-3.5°/50'</t>
+  </si>
+  <si>
+    <t>TG024</t>
+  </si>
+  <si>
+    <t>TG023
+(FAF)</t>
+  </si>
+  <si>
+    <t>TG022</t>
+  </si>
+  <si>
+    <t>TG021</t>
+  </si>
+  <si>
+    <t>TG020</t>
+  </si>
+  <si>
+    <t>RWY20</t>
+  </si>
+  <si>
+    <t>TG025</t>
+  </si>
+  <si>
+    <t>TG026</t>
+  </si>
+  <si>
+    <t>TG027</t>
+  </si>
+  <si>
+    <t>TG028</t>
+  </si>
+  <si>
+    <t>RNP 0.4</t>
+  </si>
+  <si>
+    <t>RNP0.5</t>
+  </si>
+  <si>
+    <t>141229.91N</t>
+  </si>
+  <si>
+    <t>0871223.77W</t>
+  </si>
+  <si>
+    <t>141041.04N</t>
+  </si>
+  <si>
+    <t>0871259.15W</t>
+  </si>
+  <si>
+    <t>140912.61N</t>
+  </si>
+  <si>
+    <t>0871256.03W</t>
+  </si>
+  <si>
+    <t>140629.96N</t>
+  </si>
+  <si>
+    <t>0871225.23W</t>
+  </si>
+  <si>
+    <t>140504.82N</t>
+  </si>
+  <si>
+    <t>0871231.73W</t>
+  </si>
+  <si>
+    <t>140324.58N</t>
+  </si>
+  <si>
+    <t>0871307.24W</t>
+  </si>
+  <si>
+    <t>140236.69N</t>
+  </si>
+  <si>
+    <t>0871521.71W</t>
+  </si>
+  <si>
+    <t>140424.08N</t>
+  </si>
+  <si>
+    <t>0871829.62W</t>
+  </si>
+  <si>
+    <t>140917.78N</t>
+  </si>
+  <si>
+    <t>0871853.90W</t>
+  </si>
+  <si>
+    <t>TG0R5
+141007.00N
+0870752.46W</t>
+  </si>
+  <si>
+    <t>TG0R6
+140559.39N
+0871515.20W</t>
+  </si>
+  <si>
+    <t>TG0R7
+140354.12N
+0871434.70W</t>
+  </si>
+  <si>
+    <t>TG0R8
+140659.13N
+0871656.02W</t>
   </si>
 </sst>
 </file>
@@ -868,6 +986,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -882,13 +1007,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1197,6 +1315,1064 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:W16"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="9.125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="11.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="6.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.875" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="3.5" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="3.75" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="11.75" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="9.125" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12.875" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+    </row>
+    <row r="2" spans="1:23" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="P2" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="R2" s="4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="T2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="V2" s="6"/>
+      <c r="W2" s="6"/>
+    </row>
+    <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="16">
+        <v>8000</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="L3" s="15">
+        <v>220</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="P3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+      <c r="W3" s="6"/>
+    </row>
+    <row r="4" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="37"/>
+      <c r="B4" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>181</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="18" t="str">
+        <f>W4</f>
+        <v>208.9 (208.6)</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="16">
+        <v>6500</v>
+      </c>
+      <c r="K4" s="15">
+        <v>4.09</v>
+      </c>
+      <c r="L4" s="15">
+        <v>220</v>
+      </c>
+      <c r="M4" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N4" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="P4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R4" s="11">
+        <v>208.57418000000001</v>
+      </c>
+      <c r="S4" s="12" t="str">
+        <f>MID(M3,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T4" s="12" t="str">
+        <f>MID(M3,3,2)</f>
+        <v>20</v>
+      </c>
+      <c r="U4" s="12">
+        <f>-(S4+T4/60)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="V4" s="12">
+        <f>R4-U4</f>
+        <v>208.90751333333336</v>
+      </c>
+      <c r="W4" s="12" t="str">
+        <f>TEXT(V4,"000.0")&amp;TEXT(R4," (000.0)")</f>
+        <v>208.9 (208.6)</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="37"/>
+      <c r="B5" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>195</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="16">
+        <v>5800</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1.92</v>
+      </c>
+      <c r="L5" s="15">
+        <v>220</v>
+      </c>
+      <c r="M5" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N5" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="R5" s="11"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+    </row>
+    <row r="6" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37"/>
+      <c r="B6" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="16">
+        <v>5219</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1.48</v>
+      </c>
+      <c r="L6" s="15">
+        <v>165</v>
+      </c>
+      <c r="M6" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N6" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="20">
+        <v>5</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>211</v>
+      </c>
+      <c r="R6" s="11"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+    </row>
+    <row r="7" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37"/>
+      <c r="B7" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="18" t="str">
+        <f t="shared" ref="H5:H14" si="0">W7</f>
+        <v>169.9 (169.5)</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="16">
+        <v>4192</v>
+      </c>
+      <c r="K7" s="19">
+        <v>2.74</v>
+      </c>
+      <c r="L7" s="15">
+        <v>165</v>
+      </c>
+      <c r="M7" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N7" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O7" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R7" s="11">
+        <v>169.52896000000001</v>
+      </c>
+      <c r="S7" s="12" t="str">
+        <f t="shared" ref="S5:S14" si="1">MID(M6,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T7" s="12" t="str">
+        <f t="shared" ref="T5:T14" si="2">MID(M6,3,2)</f>
+        <v>20</v>
+      </c>
+      <c r="U7" s="12">
+        <f>-(S7+T7/60)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="V7" s="12">
+        <f t="shared" ref="V5:V14" si="3">R7-U7</f>
+        <v>169.86229333333335</v>
+      </c>
+      <c r="W7" s="12" t="str">
+        <f t="shared" ref="W5:W14" si="4">TEXT(V7,"000.0")&amp;TEXT(R7," (000.0)")</f>
+        <v>169.9 (169.5)</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="37"/>
+      <c r="B8" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="16">
+        <v>3655</v>
+      </c>
+      <c r="K8" s="19">
+        <v>1.44</v>
+      </c>
+      <c r="L8" s="15">
+        <v>165</v>
+      </c>
+      <c r="M8" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N8" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="O8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="20">
+        <v>2.8</v>
+      </c>
+      <c r="Q8" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="R8" s="11"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+    </row>
+    <row r="9" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="37"/>
+      <c r="B9" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>186</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="18" t="str">
+        <f t="shared" si="0"/>
+        <v>199.3 (199.0)</v>
+      </c>
+      <c r="I9" s="15"/>
+      <c r="J9" s="16">
+        <v>3282</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
+      <c r="L9" s="15">
+        <v>165</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>144</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="O9" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="R9" s="11">
+        <v>198.96195</v>
+      </c>
+      <c r="S9" s="12" t="str">
+        <f t="shared" ref="S9" si="5">MID(M8,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T9" s="12" t="str">
+        <f t="shared" ref="T9" si="6">MID(M8,3,2)</f>
+        <v>20</v>
+      </c>
+      <c r="U9" s="12">
+        <f>-(S9+T9/60)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="V9" s="12">
+        <f t="shared" ref="V9" si="7">R9-U9</f>
+        <v>199.29528333333334</v>
+      </c>
+      <c r="W9" s="12" t="str">
+        <f t="shared" ref="W9" si="8">TEXT(V9,"000.0")&amp;TEXT(R9," (000.0)")</f>
+        <v>199.3 (199.0)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" s="23">
+        <v>3655</v>
+      </c>
+      <c r="K10" s="24">
+        <v>1.44</v>
+      </c>
+      <c r="L10" s="21">
+        <v>165</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O10" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P10" s="24">
+        <v>2.8</v>
+      </c>
+      <c r="Q10" s="21" t="s">
+        <v>212</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+    </row>
+    <row r="11" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="39"/>
+      <c r="B11" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>186</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>199.3 (199.0)</v>
+      </c>
+      <c r="I11" s="21"/>
+      <c r="J11" s="23">
+        <v>3282</v>
+      </c>
+      <c r="K11" s="24">
+        <v>1</v>
+      </c>
+      <c r="L11" s="21">
+        <v>165</v>
+      </c>
+      <c r="M11" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O11" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>198.96195</v>
+      </c>
+      <c r="S11" s="12" t="str">
+        <f t="shared" ref="S11:S12" si="9">MID(M7,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="12" t="str">
+        <f t="shared" ref="T11:T12" si="10">MID(M7,3,2)</f>
+        <v>20</v>
+      </c>
+      <c r="U11" s="12">
+        <f>-(S11+T11/60)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="V11" s="12">
+        <f t="shared" ref="V11:V12" si="11">R11-U11</f>
+        <v>199.29528333333334</v>
+      </c>
+      <c r="W11" s="12" t="str">
+        <f t="shared" ref="W11:W12" si="12">TEXT(V11,"000.0")&amp;TEXT(R11," (000.0)")</f>
+        <v>199.3 (199.0)</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="39"/>
+      <c r="B12" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>187</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>199.6 (199.2)</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" s="23">
+        <v>3435</v>
+      </c>
+      <c r="K12" s="24">
+        <v>0.76</v>
+      </c>
+      <c r="L12" s="21">
+        <v>165</v>
+      </c>
+      <c r="M12" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O12" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R12" s="11">
+        <v>199.22486000000001</v>
+      </c>
+      <c r="S12" s="12" t="str">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="12" t="str">
+        <f t="shared" si="10"/>
+        <v>20</v>
+      </c>
+      <c r="U12" s="12">
+        <f>-(S12+T12/60)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="V12" s="12">
+        <f t="shared" si="11"/>
+        <v>199.55819333333335</v>
+      </c>
+      <c r="W12" s="12" t="str">
+        <f t="shared" si="12"/>
+        <v>199.6 (199.2)</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="39"/>
+      <c r="B13" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>188</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" s="23">
+        <v>3971</v>
+      </c>
+      <c r="K13" s="24">
+        <v>2.65</v>
+      </c>
+      <c r="L13" s="21">
+        <v>185</v>
+      </c>
+      <c r="M13" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N13" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O13" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P13" s="24">
+        <v>1.5</v>
+      </c>
+      <c r="Q13" s="21" t="s">
+        <v>213</v>
+      </c>
+      <c r="R13" s="11"/>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="12"/>
+    </row>
+    <row r="14" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="39"/>
+      <c r="B14" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="22" t="s">
+        <v>189</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>208</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>300.7 (300.4)</v>
+      </c>
+      <c r="I14" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" s="23">
+        <v>4688</v>
+      </c>
+      <c r="K14" s="24">
+        <v>3.53</v>
+      </c>
+      <c r="L14" s="21">
+        <v>220</v>
+      </c>
+      <c r="M14" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R14" s="11">
+        <v>300.35232000000002</v>
+      </c>
+      <c r="S14" s="12" t="str">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T14" s="12" t="str">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="U14" s="12">
+        <f>-(S14+T14/60)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="V14" s="12">
+        <f t="shared" si="3"/>
+        <v>300.68565333333333</v>
+      </c>
+      <c r="W14" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>300.7 (300.4)</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="39"/>
+      <c r="B15" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="D15" s="22" t="s">
+        <v>190</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>209</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>210</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I15" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" s="23">
+        <v>5870</v>
+      </c>
+      <c r="K15" s="24">
+        <v>5.77</v>
+      </c>
+      <c r="L15" s="21">
+        <v>220</v>
+      </c>
+      <c r="M15" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N15" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O15" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="P15" s="24">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="21" t="s">
+        <v>214</v>
+      </c>
+      <c r="R15" s="11"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+    </row>
+    <row r="16" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="40"/>
+      <c r="B16" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="D16" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="H16" s="21" t="str">
+        <f>W16</f>
+        <v>051.0 (050.6)</v>
+      </c>
+      <c r="I16" s="21"/>
+      <c r="J16" s="23">
+        <v>8000</v>
+      </c>
+      <c r="K16" s="24">
+        <v>10.7</v>
+      </c>
+      <c r="L16" s="21">
+        <v>265</v>
+      </c>
+      <c r="M16" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="N16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="O16" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="R16" s="11">
+        <v>50.632800000000003</v>
+      </c>
+      <c r="S16" s="12" t="str">
+        <f>MID(M15,1,1)</f>
+        <v>0</v>
+      </c>
+      <c r="T16" s="12" t="str">
+        <f>MID(M15,3,2)</f>
+        <v>20</v>
+      </c>
+      <c r="U16" s="12">
+        <f>-(S16+T16/60)</f>
+        <v>-0.33333333333333331</v>
+      </c>
+      <c r="V16" s="12">
+        <f>R16-U16</f>
+        <v>50.966133333333339</v>
+      </c>
+      <c r="W16" s="12" t="str">
+        <f>TEXT(V16,"000.0")&amp;TEXT(R16," (000.0)")</f>
+        <v>051.0 (050.6)</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B1:O1"/>
+    <mergeCell ref="A3:A9"/>
+    <mergeCell ref="A10:A16"/>
+  </mergeCells>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup scale="49" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1231,20 +2407,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
     </row>
@@ -1314,7 +2490,7 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -1375,7 +2551,7 @@
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="15" t="s">
         <v>67</v>
       </c>
@@ -1450,7 +2626,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="15" t="s">
         <v>67</v>
       </c>
@@ -1525,7 +2701,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="15" t="s">
         <v>67</v>
       </c>
@@ -1599,7 +2775,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="15" t="s">
         <v>67</v>
       </c>
@@ -1674,7 +2850,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="15" t="s">
         <v>67</v>
       </c>
@@ -1748,7 +2924,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="15" t="s">
         <v>67</v>
       </c>
@@ -1823,7 +2999,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="15" t="s">
         <v>67</v>
       </c>
@@ -1897,7 +3073,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="15" t="s">
         <v>67</v>
       </c>
@@ -1972,7 +3148,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="38" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -2031,7 +3207,7 @@
       <c r="W12" s="12"/>
     </row>
     <row r="13" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="21" t="s">
         <v>67</v>
       </c>
@@ -2088,7 +3264,7 @@
       <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="21" t="s">
         <v>67</v>
       </c>
@@ -2145,7 +3321,7 @@
       <c r="W14" s="12"/>
     </row>
     <row r="15" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="21" t="s">
         <v>67</v>
       </c>
@@ -2220,7 +3396,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="21" t="s">
         <v>67</v>
       </c>
@@ -2295,7 +3471,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="21" t="s">
         <v>67</v>
       </c>
@@ -2370,7 +3546,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="21" t="s">
         <v>67</v>
       </c>
@@ -2455,7 +3631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -2494,20 +3670,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
       <c r="P1" s="13"/>
       <c r="Q1" s="13"/>
     </row>
@@ -2577,7 +3753,7 @@
       <c r="W2" s="6"/>
     </row>
     <row r="3" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>108</v>
       </c>
       <c r="B3" s="15" t="s">
@@ -2638,7 +3814,7 @@
       <c r="W3" s="6"/>
     </row>
     <row r="4" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="37"/>
       <c r="B4" s="15" t="s">
         <v>115</v>
       </c>
@@ -2713,7 +3889,7 @@
       </c>
     </row>
     <row r="5" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="37"/>
       <c r="B5" s="15" t="s">
         <v>116</v>
       </c>
@@ -2787,7 +3963,7 @@
       </c>
     </row>
     <row r="6" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="37"/>
       <c r="B6" s="15" t="s">
         <v>117</v>
       </c>
@@ -2861,7 +4037,7 @@
       </c>
     </row>
     <row r="7" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="37"/>
       <c r="B7" s="15" t="s">
         <v>118</v>
       </c>
@@ -2936,7 +4112,7 @@
       </c>
     </row>
     <row r="8" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="37"/>
       <c r="B8" s="15" t="s">
         <v>119</v>
       </c>
@@ -3010,7 +4186,7 @@
       </c>
     </row>
     <row r="9" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="37"/>
       <c r="B9" s="15" t="s">
         <v>120</v>
       </c>
@@ -3085,7 +4261,7 @@
       </c>
     </row>
     <row r="10" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="37"/>
       <c r="B10" s="15" t="s">
         <v>121</v>
       </c>
@@ -3159,7 +4335,7 @@
       </c>
     </row>
     <row r="11" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
+      <c r="A11" s="37"/>
       <c r="B11" s="15" t="s">
         <v>122</v>
       </c>
@@ -3234,7 +4410,7 @@
       </c>
     </row>
     <row r="12" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="38" t="s">
         <v>107</v>
       </c>
       <c r="B12" s="21" t="s">
@@ -3293,7 +4469,7 @@
       <c r="W12" s="12"/>
     </row>
     <row r="13" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
+      <c r="A13" s="39"/>
       <c r="B13" s="21" t="s">
         <v>115</v>
       </c>
@@ -3350,7 +4526,7 @@
       <c r="W13" s="12"/>
     </row>
     <row r="14" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="36"/>
+      <c r="A14" s="39"/>
       <c r="B14" s="21" t="s">
         <v>116</v>
       </c>
@@ -3407,7 +4583,7 @@
       <c r="W14" s="12"/>
     </row>
     <row r="15" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="36"/>
+      <c r="A15" s="39"/>
       <c r="B15" s="21" t="s">
         <v>117</v>
       </c>
@@ -3482,7 +4658,7 @@
       </c>
     </row>
     <row r="16" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="36"/>
+      <c r="A16" s="39"/>
       <c r="B16" s="21" t="s">
         <v>118</v>
       </c>
@@ -3557,7 +4733,7 @@
       </c>
     </row>
     <row r="17" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="36"/>
+      <c r="A17" s="39"/>
       <c r="B17" s="21" t="s">
         <v>119</v>
       </c>
@@ -3632,7 +4808,7 @@
       </c>
     </row>
     <row r="18" spans="1:23" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="37"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="21" t="s">
         <v>120</v>
       </c>
@@ -3717,7 +4893,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
@@ -6016,11 +7192,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:T21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:M15"/>
     </sheetView>
   </sheetViews>
@@ -6112,7 +7288,7 @@
       <c r="M3" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="O3" s="38" t="s">
+      <c r="O3" s="33" t="s">
         <v>0</v>
       </c>
       <c r="P3" s="30" t="str">
@@ -6419,7 +7595,7 @@
       <c r="M9" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="O9" s="40" t="s">
+      <c r="O9" s="35" t="s">
         <v>0</v>
       </c>
       <c r="P9" s="30" t="str">
@@ -6457,7 +7633,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="9" t="str">
-        <f t="shared" ref="G9:G11" si="7">T10</f>
+        <f t="shared" ref="G10:G11" si="7">T10</f>
         <v>160.1 (159.8)</v>
       </c>
       <c r="H10" s="9" t="s">
@@ -6498,7 +7674,7 @@
         <v>160.13865652333334</v>
       </c>
       <c r="T10" s="30" t="str">
-        <f t="shared" ref="T9:T11" si="9">TEXT(S10,"000.0")&amp;TEXT(O10," (000.0)")</f>
+        <f t="shared" ref="T10:T11" si="9">TEXT(S10,"000.0")&amp;TEXT(O10," (000.0)")</f>
         <v>160.1 (159.8)</v>
       </c>
     </row>
@@ -6568,7 +7744,7 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O12" s="38"/>
+      <c r="O12" s="33"/>
     </row>
     <row r="13" spans="1:20" ht="39" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
@@ -6610,7 +7786,7 @@
       <c r="M13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="O13" s="38"/>
+      <c r="O13" s="33"/>
     </row>
     <row r="14" spans="1:20" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
@@ -6652,7 +7828,7 @@
       <c r="M14" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="O14" s="38" t="s">
+      <c r="O14" s="33" t="s">
         <v>0</v>
       </c>
       <c r="P14" s="30" t="str">
@@ -6709,7 +7885,7 @@
       <c r="M15" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="O15" s="39">
+      <c r="O15" s="34">
         <v>71.804550289999995</v>
       </c>
       <c r="P15" s="30" t="str">
@@ -6734,22 +7910,22 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="O16" s="38"/>
+      <c r="O16" s="33"/>
     </row>
     <row r="17" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O17" s="38"/>
+      <c r="O17" s="33"/>
     </row>
     <row r="18" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O18" s="38"/>
+      <c r="O18" s="33"/>
     </row>
     <row r="19" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O19" s="38"/>
+      <c r="O19" s="33"/>
     </row>
     <row r="20" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O20" s="38"/>
+      <c r="O20" s="33"/>
     </row>
     <row r="21" spans="15:15" x14ac:dyDescent="0.25">
-      <c r="O21" s="38"/>
+      <c r="O21" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
